--- a/data/bench.xlsx
+++ b/data/bench.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JBioSeqTools benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JBioSeqTools_benchmark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE5441-4527-4488-9CEB-5D577EB93065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E9EAF-8C53-4102-8E29-5E2C0F546E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1365" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Tool</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>VectorBuilder</t>
-  </si>
-  <si>
-    <t>https://en.vectorbuilder.com/products-services/service/shrna-knockdown-solutions.html</t>
-  </si>
-  <si>
-    <t>Reduced options</t>
   </si>
   <si>
     <t>GCACTTGGGCGAGAGCTGGAACGTGGACCAGAGCTCGGATCCCATCGCAGCTACCGCGATGAGAGGCGCTCGCGGCGCCTGGGATTTTCTCTGCGTTCTGCTCCTACTGCTTCGCGTCCAGACAGGCTCTTCTCAACCATCTGTGAGTCCAGGGGAACCGTCTCCACCATCCATCCATCCAGGAAAATCAGACTTAATAGTCCGCGTGGGCGACGAGATTAGGCTGTTATGCACTGATCCGGGCTTTGTCAAATGGACTTTTGAGATCCTGGATGAAACGAATGAGAATAAGCAGAATGAATGGATCACGGAAAAGGCAGAAGCCACCAACACCGGCAAATACACGTGCACCAACAAACACGGCTTAAGCAATTCCATTTATGTGTTTGTTAGAGATCCTGCCAAGCTTTTCCTTGTTGACCGCTCCTTGTATGGGAAAGAAGACAACGACACGCTGGTCCGCTGTCCTCTCACAGACCCAGAAGTGACCAATTATTCCCTCAAGGGGTGCCAGGGGAAGCCTCTTCCCAAGGACTTGAGGTTTATTCCTGACCCCAAGGCGGGCATCATGATCAAAAGTGTGAAACGCGCCTACCATCGGCTCTGTCTGCATTGTTCTGTGGACCAGGAGGGCAAGTCAGTGCTGTCGGAAAAATTCATCCTGAAAGTGAGGCCAGCCTTCAAAGCTGTGCCTGTTGTGTCTGTGTCCAAAGCAAGCTATCTTCTTAGGGAAGGGGAAGAATTCACAGTGACGTGCACAATAAAAGATGTGTCTAGTTCTGTGTACTCAACGTGGAAAAGAGAAAACAGTCAGACTAAACTACAGGAGAAATATAATAGCTGGCATCACGGTGACTTCAATTATGAACGTCAGGCAACGTTGACTATCAGTTCAGCGAGAGTTAATGATTCTGGAGTGTTCATGTGTTATGCCAATAATACTTTTGGATCAGCAAATGTCACAACAACCTTGGAAGTAGTAGATAAAGGATTCATTAATATCTTCCCCATGATAAACACTACAGTATTTGTAAACGATGGAGAAAATGTAGATTTGATTGTTGAATATGAAGCATTCCCCAAACCTGAACACCAGCAGTGGATCTATATGAACAGAACCTTCACTGATAAATGGGAAGATTATCCCAAGTCTGAGAATGAAAGTAATATCAGATACGTAAGTGAACTTCATCTAACGAGATTAAAAGGCACCGAAGGAGGCACTTACACATTCCTAGTGTCCAATTCTGACGTCAATGCTGCCATAGCATTTAATGTTTATGTGAATACAAAACCAGAAATCCTGACTTACGACAGGCTCGTGAATGGCATGCTCCAATGTGTGGCAGCAGGATTCCCAGAGCCCACAATAGATTGGTATTTTTGTCCAGGAACTGAGCAGAGATGCTCTGCTTCTGTACTGCCAGTGGATGTGCAGACACTAAACTCATCTGGGCCACCGTTTGGAAAGCTAGTGGTTCAGAGTTCTATAGATTCTAGTGCATTCAAGCACAATGGCACGGTTGAATGTAAGGCTTACAACGATGTGGGCAAGACTTCTGCCTATTTTAACTTTGCATTTAAAGAGCAAATCCATCCCCACACCCTGTTCACTCCTTTGCTGATTGGTTTCGTAATCGTAGCTGGCATGATGTGCATTATTGTGATGATTCTGACCTACAAATATTTACAGAAACCCATGTATGAAGTACAGTGGAAGGTTGTTGAGGAGATAAATGGAAACAATTATGTTTACATAGACCCAACACAACTTCCTTATGATCACAAATGGGAGTTTCCCAGAAACAGGCTGAGTTTTGGGAAAACCCTGGGTGCTGGAGCTTTCGGGAAGGTTGTTGAGGCAACTGCTTATGGCTTAATTAAGTCAGATGCGGCCATGACTGTCGCTGTAAAGATGCTCAAGCCGAGTGCCCATTTGACAGAACGGGAAGCCCTCATGTCTGAACTCAAAGTCCTGAGTTACCTTGGTAATCACATGAATATTGTGAATCTACTTGGAGCCTGCACCATTGGAGGGCCCACCCTGGTCATTACAGAATATTGTTGCTATGGTGATCTTTTGAATTTTTTGAGAAGAAAACGTGATTCATTTATTTGTTCAAAGCAGGAAGATCATGCAGAAGCTGCACTTTATAAGAATCTTCTGCATTCAAAGGAGTCTTCCTGCGATAGTACTAATGAGTACATGGACATGAAACCTGGAGTTTCTTATGTTGTCCCAACCAAGGCCGACAAAAGGAGATCTGTGAGAATAGGCTCATACATAGAAAGAGATGTGACTCCCGCCATCATGGAGGATGACGAGTTGGCCCTAGACTTAGAAGACTTGCTGAGCTTTTCTTACCAGGTGGCAAAGGGCATGGCTTTCCTCGCCTCCAAGAATTGTATTCACAGAGACTTGGCAGCCAGAAATATCCTCCTTACTCATGGTCGGATCACAAAGATTTGTGATTTTGGTCTAGCCAGAGACATCAAGAATGATTCTAATTATGTGGTTAAAGGAAACGCTCGACTACCTGTGAAGTGGATGGCACCTGAAAGCATTTTCAACTGTGTATACACGTTTGAAAGTGACGTCTGGTCCTATGGGATTTTTCTTTGGGAGCTGTTCTCTTTAGGAAGCAGCCCCTATCCTGGAATGCCGGTCGATTCTAAGTTCTACAAGATGATCAAGGAAGGCTTCCGGATGCTCAGCCCTGAACACGCACCTGCTGAAATGTATGACATAATGAAGACTTGCTGGGATGCAGATCCCCTAAAAAGACCAACATTCAAGCAAATTGTTCAGCTAATTGAGAAGCAGATTTCAGAGAGCACCAATCATATTTACTCCAACTTAGCAAACTGCAGCCCCAACCGACAGAAGCCCGTGGTAGACCATTCTGTGCGGATCAATTCTGTCGGCAGCACCGCTTCCTCCTCCCAGCCTCTGCTTGTGCACGACGATGTCTGAGCAGAATCAGTGTTTGGGTCACCCCTCCAGGAATGATCTCTTCTTTTGGCTTCCATGATGGTTATTTTCTTTTCTTTCAACTTGCATCCAACTCCAGGATAGTGGGCACCCCACTGCAATCCTGTCTTTCTGAGCACACTTTAGTGGCCGATGATTTTTGTCATCAGCCACCATCCTATTGCAAAGGTTCCAACTGTATATATTCCCAATAGCAACGTAGCTTCTACCATGAACAGAAAACATTCTGATTTGGAAAAAGAGAGGGAGGTATGGACTGGGGGCCAGAGTCCTTTCCAAGGCTTCTCCAATTCTGCCCAAAAATATGGTTGATAGTTTACCTGAATAAATGGTAGTAATCACAGTTGGCCTTCAGAACCATCCATAGTAGTATGATGATACAAGATTAGAAGCTGAAAACCTAAGTCCTTTATGTGGAAAACAGAACATCATTAGAACAAAGGACAGAGTATGAACACCTGGGCTTAAGAAATCTAGTATTTCATGCTGGGAATGAGACATAGGCCATGAAAAAAATGATCCCCAAGTGTGAACAAAAGATGCTCTTCTGTGGACCACTGCATGAGCTTTTATACTACCGACCTGGTTTTTAAATAGAGTTTGCTATTAGAGCATTGAATTGGAGAGAAGGCCTCCCTAGCCAGCACTTGTATATACGCATCTATAAATTGTCCGTGTTCATACATTTGAGGGGAAAACACCATAAGGTTTCGTTTCTGTATACAACCCTGGCATTATGTCCACTGTGTATAGAAGTAGATTAAGAGCCATATAAGTTTGAAGGAAACAGTTAATACCATTTTTTAAGGAAACAATATAACCACAAAGCACAGTTTGAACAAAATCTCCTCTTTTAGCTGATGAACTTATTCTGTAGATTCTGTGGAACAAGCCTATCAGCTTCAGAATGGCATTGTACTCAATGGATTTGATGCTGTTTGACAAAGTTACTGATTCACTGCATGGCTCCCACAGGAGTGGGAAAACACTGCCATCTTAGTTTGGATTCTTATGTAGCAGGAAATAAAGTATAGGTTTAGCCTCCTTCGCAGGCATGTCCTGGACACCGGGCCAGTATCTATATATGTGTATGTACGTTTGTATGTGTGTAGACAAATATTTGGAGGGGTATTTTTGCCCTGAGTCCAAGAGGGTCCTTTAGTACCTGAAAAGTAACTTGGCTTTCATTATTAGTACTGCTCTTGTTTCTTTTCACATAGCTGTCTAGAGTAGCTTACCAGAAGCTTCCATAGTGGTGCAGAGGAAGTGGAAGGCATCAGTCCCTATGTATTTGCAGTTCACCTGCACTTAAGGCACTCTGTTATTTAGACTCATCTTACTGTACCTGTTCCTTAGACCTTCCATAATGCTACTGTCTCACTGAAACATTTAAATTTTACCCTTTAGACTGTAGCCTGGATATTATTCTTGTAGTTTACCTCTTTAAAAACAAAACAAAACAAAACAAAAAACTCCCCTTCCTCACTGCCCAATATAAAAGGCAAATGTGTACATGGCAGAGTTTGTGTGTTGTCTTGAAAGATTCAGGTATGTTGCCTTTATGGTTTCCCCCTTCTACATTTCTTAGACTACATTTAGAGAACTGTGGCCGTTATCTGGAAGTAACCATTTGCACTGGAGTTCTATGCTCTCGCACCTTTCCAAAGTTAACAGATTTTGGGGTTGTGTTGTCACCCAAGAGATTGTTGTTTGCCATACTTTGTCTGAAAAATTCCTTTGTGTTTCTATTGACTTCAATGATAGTAAGAAAAGTGGTTGTTAGTTATAGATGTCTAGGTACTTCAGGGGCACTTCATTGAGAGTTTTGTCTTGGATATTCTTGAAAGTTTATATTTTTATAATTTTTTCTTACATCAGATGTTTCTTTGCAGTGGCTTAATGTTTGAAATTATTTTGTGGCTTTTTTTGTAAATATTGAAATGTAGCAATAATGTCTTTTGAATATTCCCAAGCCCATGAGTCCTTGAAAATATTTTTTATATATACAGTAACTTTATGTGTAAATACATAAGCGGCGTAAGTTTAAAGGATGTTGGTGTTCCACGTGTTTTATTCCTGTATGTTGTCCAATTGTTGACAGTTCTGAAGAATTCTAATAAAATGTACATATATAAATCAA</t>
@@ -464,7 +458,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,13 +484,13 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -513,10 +507,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -533,10 +527,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -551,25 +545,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -591,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -599,10 +585,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -610,10 +596,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -634,7 +620,6 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{287DD87E-3F5D-4394-9319-6375F4554992}"/>
     <hyperlink ref="B12" r:id="rId5" xr:uid="{E0D96D19-A3C1-4312-9530-44A71578E2C3}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{140F7DBB-D2B6-400B-AD54-5AB695F0B932}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{337B4221-8EC1-45C3-9920-A75A32B387AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
